--- a/Convention-transcription_SYNTHESE_v1.xlsx
+++ b/Convention-transcription_SYNTHESE_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/devlopt/trjs-v0.7.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0351D2C2-6D69-4A41-8A52-E767DEBC5075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BC587-BA03-C34F-99C9-E9A3F3FBC8CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1960" windowWidth="36320" windowHeight="25200" tabRatio="500"/>
+    <workbookView xWindow="6400" yWindow="1480" windowWidth="41120" windowHeight="25200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Christophe Parisse</author>
     <author>pallaud</author>
   </authors>
   <commentList>
-    <comment ref="E27" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -992,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K67" authorId="1" shapeId="0">
+    <comment ref="K59" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="378">
   <si>
     <t>L1:  i(l) y a d(é)jà</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2309,12 +2309,6 @@
     <t>Choix des symboles séparateurs</t>
   </si>
   <si>
-    <t>Modifieurs de transcription (par ex: prononciation)</t>
-  </si>
-  <si>
-    <t>Ajout d'information sur la transcription: (par ex: commentaire, indication que c'est un acronyme)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[] </t>
   </si>
   <si>
@@ -2375,9 +2369,6 @@
     <t>{ … /A}</t>
   </si>
   <si>
-    <t>&lt;choice&gt;&lt;orig&gt;&lt;corr&gt;</t>
-  </si>
-  <si>
     <t>&lt;choice&gt;&lt;seg&gt;..&lt;seg&gt;…&lt;corr&gt;</t>
   </si>
   <si>
@@ -2399,15 +2390,9 @@
     <t>{…/VAR}</t>
   </si>
   <si>
-    <t>{…/API}</t>
-  </si>
-  <si>
     <t>&lt;Event desc="?" type="?" extent="previous"/&gt;</t>
   </si>
   <si>
-    <t>&lt;choice&gt;&lt;orig style="API"&gt;&lt;corr&gt;</t>
-  </si>
-  <si>
     <t>[transcription, variante]</t>
   </si>
   <si>
@@ -2439,12 +2424,39 @@
   </si>
   <si>
     <t>&lt;kinesic&gt;</t>
+  </si>
+  <si>
+    <t>&lt;choice&gt;&lt;orig&gt;&lt;reg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;seg type="API"&gt;aja&lt;seg&gt;</t>
+  </si>
+  <si>
+    <t>Ajout d'information sur la transcription: (par ex: commentaire, paralinguistique, geste)</t>
+  </si>
+  <si>
+    <t>Modifieurs de transcription (par ex: prononciation, indication que c'est un acronyme)</t>
+  </si>
+  <si>
+    <t>&lt;seg type="language" subtype="spa"&gt;el ladron&lt;/seg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;seg type="lexical" subtype="mydic"&gt;titou&lt;/seg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rs type="entities"&gt;Noyon&lt;/rs&gt;</t>
+  </si>
+  <si>
+    <t>{…/VARPHO}</t>
+  </si>
+  <si>
+    <t>&lt;choice type="pho"&gt;&lt;orig&gt;&lt;reg&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2734,6 +2746,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2744,9 +2759,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3153,11 +3165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3167,7 +3179,7 @@
     <col min="4" max="4" width="37" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58" style="2" customWidth="1"/>
+    <col min="7" max="7" width="49" style="2" customWidth="1"/>
     <col min="8" max="8" width="1.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="40.5" style="2"/>
   </cols>
@@ -3180,10 +3192,10 @@
         <v>269</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>268</v>
@@ -3230,23 +3242,23 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>329</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>332</v>
+        <v>371</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A3" s="30"/>
       <c r="B3" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>325</v>
       </c>
       <c r="H3" s="21"/>
@@ -3262,7 +3274,7 @@
         <v>312</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="1" t="s">
@@ -3308,7 +3320,7 @@
         <v>319</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H5" s="8"/>
       <c r="O5" s="5"/>
@@ -3333,140 +3345,146 @@
     </row>
     <row r="7" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" s="30"/>
+        <v>365</v>
+      </c>
+      <c r="H7" s="26"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
+      <c r="D11" s="25" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="98" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>92</v>
+      <c r="A12" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
+      <c r="F12" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="2" t="s">
@@ -3494,661 +3512,796 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="98" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>364</v>
+    <row r="13" spans="1:19" ht="84" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>60</v>
+        <v>206</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
       </c>
       <c r="P13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>296</v>
+    <row r="14" spans="1:19" ht="98" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
-        <v>311</v>
+      <c r="D14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="98" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="I15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
-        <v>297</v>
+        <v>338</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="H16" s="8"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="18" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" ht="98" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="D19" s="25"/>
+        <v>326</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" ht="98" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="H20" s="8"/>
+      <c r="L20" s="3"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-      <c r="H21" s="10"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:19" ht="56" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>112</v>
+      <c r="H21" s="8"/>
+      <c r="L21" s="3"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>309</v>
+      <c r="E23" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>271</v>
+        <v>311</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
+      <c r="E26" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" ht="56" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="3"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" ht="42" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>103</v>
+      <c r="E27" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
-        <v>0</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="28" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="31" spans="1:19" ht="56" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>300</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>284</v>
+        <v>348</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>291</v>
+      <c r="E32" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="H32" s="8"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
-        <v>286</v>
+      <c r="I32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="56" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="25" t="s">
-        <v>280</v>
+      <c r="E35" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="2" t="s">
-        <v>229</v>
+      <c r="I35" s="2">
+        <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>202</v>
+        <v>141</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
-        <v>338</v>
+        <v>164</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="16" t="s">
-        <v>294</v>
+      <c r="E39" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="42" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -4156,7 +4309,6 @@
         <v>303</v>
       </c>
       <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
       <c r="E41" s="17" t="s">
         <v>281</v>
       </c>
@@ -4192,7 +4344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="42" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>68</v>
       </c>
@@ -4236,7 +4388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="42" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -4280,464 +4432,574 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="98" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>283</v>
+        <v>95</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="16" t="s">
-        <v>290</v>
+      <c r="E44" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>154</v>
+        <v>252</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="42" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H47" s="8"/>
-      <c r="I47" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="98" x14ac:dyDescent="0.15">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="15"/>
+    </row>
+    <row r="49" spans="1:16" ht="70" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="8"/>
       <c r="I49" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="O49" s="5">
         <v>0</v>
       </c>
-      <c r="P49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="25" t="s">
-        <v>343</v>
+      <c r="P49" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="154" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" ht="98" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22" t="s">
-        <v>336</v>
+      <c r="I50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H51" s="8"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" ht="84" x14ac:dyDescent="0.15">
-      <c r="A52" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24" t="s">
-        <v>337</v>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="H52" s="8"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-    </row>
-    <row r="55" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="8"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="15"/>
-    </row>
-    <row r="57" spans="1:16" ht="70" x14ac:dyDescent="0.15">
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="126" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H57" s="8"/>
       <c r="I57" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O57" s="5">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="154" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="56" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="H58" s="8"/>
-      <c r="I58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>129</v>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O58" s="5">
         <v>0</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+      <c r="P58" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="140" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="2">
-        <v>0</v>
+      <c r="I59" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="5">
-        <v>0</v>
-      </c>
-      <c r="P59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="70" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H60" s="8"/>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
+      <c r="I60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O60" s="5">
         <v>0</v>
       </c>
-      <c r="P60" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="70" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>76</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="2" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O61" s="5">
-        <v>0</v>
-      </c>
-      <c r="P61" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="84" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
+      <c r="I62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O62" s="5">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="O63" s="5">
         <v>0</v>
@@ -4746,13 +5008,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" ht="98" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="2" t="s">
-        <v>102</v>
+      <c r="I64" s="2">
+        <v>0</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -4760,137 +5022,137 @@
       <c r="K64" s="2">
         <v>0</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="3">
         <v>0</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="O64" s="5">
         <v>0</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="126" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="196" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H65" s="8"/>
-      <c r="I65" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>173</v>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>87</v>
+        <v>122</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="J66" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L66" s="3">
         <v>0</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="O66" s="5">
         <v>0</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="140" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="70" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="2" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="2">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>120</v>
+      <c r="M68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
       </c>
       <c r="O68" s="5">
         <v>0</v>
@@ -4899,264 +5161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="70" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="84" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P70" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O71" s="5">
-        <v>0</v>
-      </c>
-      <c r="P71" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="98" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="2">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O72" s="5">
-        <v>0</v>
-      </c>
-      <c r="P72" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="196" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K73" s="2">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O73" s="5">
-        <v>0</v>
-      </c>
-      <c r="P73" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="2">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="L74" s="3">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O74" s="5">
-        <v>0</v>
-      </c>
-      <c r="P74" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O75" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="P75" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-      <c r="O76" s="5">
-        <v>0</v>
-      </c>
-      <c r="P76" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P77" s="6"/>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P69" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A48:G48"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
